--- a/Dados/tempo_real/tempo_real.xlsx
+++ b/Dados/tempo_real/tempo_real.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://simplenergy-my.sharepoint.com/personal/paulo_sergio_simpleenergy_com_br/Documents/Documentos/Outros/teste/Dados/tempo_real/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_A4DA25105230921FD2FE31D2F8F2D3C2C4DAF306" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A586D1C-F8A5-4282-B7D1-53C310F1CB70}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>co</t>
   </si>
@@ -52,26 +46,35 @@
     <t>wg</t>
   </si>
   <si>
+    <t>AQI</t>
+  </si>
+  <si>
     <t>data</t>
   </si>
   <si>
     <t>hora</t>
   </si>
   <si>
+    <t>AQUI</t>
+  </si>
+  <si>
     <t>2024-07-04</t>
   </si>
   <si>
     <t>21:00:00</t>
   </si>
   <si>
-    <t>AQI</t>
+    <t>22:00:00</t>
+  </si>
+  <si>
+    <t>23:00:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,33 +126,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -187,7 +181,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -221,7 +215,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -256,10 +249,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -432,16 +424,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,16 +463,19 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>28.1</v>
       </c>
@@ -490,7 +483,7 @@
         <v>72.3</v>
       </c>
       <c r="C2">
-        <v>73.400000000000006</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="D2">
         <v>1025.8</v>
@@ -502,7 +495,7 @@
         <v>157</v>
       </c>
       <c r="G2">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="H2">
         <v>18.5</v>
@@ -517,13 +510,13 @@
         <v>157</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>28.1</v>
       </c>
@@ -531,7 +524,7 @@
         <v>72.3</v>
       </c>
       <c r="C3">
-        <v>73.400000000000006</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="D3">
         <v>1025.8</v>
@@ -543,7 +536,7 @@
         <v>157</v>
       </c>
       <c r="G3">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="H3">
         <v>18.5</v>
@@ -558,10 +551,51 @@
         <v>157</v>
       </c>
       <c r="L3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0.91666666666666663</v>
+        <v>14</v>
+      </c>
+      <c r="M3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>24.4</v>
+      </c>
+      <c r="B4">
+        <v>83</v>
+      </c>
+      <c r="C4">
+        <v>61.1</v>
+      </c>
+      <c r="D4">
+        <v>1026</v>
+      </c>
+      <c r="E4">
+        <v>106</v>
+      </c>
+      <c r="F4">
+        <v>163</v>
+      </c>
+      <c r="G4">
+        <v>3.1</v>
+      </c>
+      <c r="H4">
+        <v>16.8</v>
+      </c>
+      <c r="I4">
+        <v>0.1</v>
+      </c>
+      <c r="J4">
+        <v>0.2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
